--- a/medicine/Enfance/Ninon_Haït-Weyl/Ninon_Haït-Weyl.xlsx
+++ b/medicine/Enfance/Ninon_Haït-Weyl/Ninon_Haït-Weyl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ninon_Ha%C3%AFt-Weyl</t>
+          <t>Ninon_Haït-Weyl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ninon Haït née Weyl, née le 2 avril 1911 à Mulhouse et morte le 15 octobre 2007 à Fontainebleau, est une résistante juive française (son nom de résistante est Nicole Harcourt[1],[2]), qui dirige avec Marc Haguenau la Sixième, mouvement de résistance juif en zone libre[3],[4],[5],[6],[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ninon Haït née Weyl, née le 2 avril 1911 à Mulhouse et morte le 15 octobre 2007 à Fontainebleau, est une résistante juive française (son nom de résistante est Nicole Harcourt,), qui dirige avec Marc Haguenau la Sixième, mouvement de résistance juif en zone libre.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ninon_Ha%C3%AFt-Weyl</t>
+          <t>Ninon_Haït-Weyl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ninon Weyl est née le 2 avril 1911 à Mulhouse[9].
-Elle est une ancienne cheftaine des Petites Ailes chez les E.I.F à Mulhouse, dans le Haut-Rhin, en Alsace[10].
-Avec Elisabeth Hirsch et Ruth Lambert, Ninon Haït-Weyl, arrive à faire sortir des camps de détention en France des centaines d'enfants et d'adolescents[11].
-Elle meurt le 15 octobre 2007 à Fontainebleau[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ninon Weyl est née le 2 avril 1911 à Mulhouse.
+Elle est une ancienne cheftaine des Petites Ailes chez les E.I.F à Mulhouse, dans le Haut-Rhin, en Alsace.
+Avec Elisabeth Hirsch et Ruth Lambert, Ninon Haït-Weyl, arrive à faire sortir des camps de détention en France des centaines d'enfants et d'adolescents.
+Elle meurt le 15 octobre 2007 à Fontainebleau.
 </t>
         </is>
       </c>
